--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.89</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -800,15 +910,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.89</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2389</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.98</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.99</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.65</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4765</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.550000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.220000000000001</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.98</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.99</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.65</v>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.550000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2692,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,17 +2704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2723,14 +2744,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.39</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2739,14 +2782,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.220000000000001</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2755,14 +2820,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.98</v>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2771,14 +2858,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.99</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="6">
@@ -2787,14 +2996,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.65</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="7">
@@ -2803,13 +3012,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.550000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
+++ b/数据整理/stocks/A股/深证主板/002019-亿帆医药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,357 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5254</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5945</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3296</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2636</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9292</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8884</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.550000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -817,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -868,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>34.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4944</t>
+          <t>2.0420</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -906,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.36</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0491</t>
+          <t>0.9700</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -944,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0401</t>
+          <t>0.1345</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -982,264 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8031</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5808</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5532</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1314,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.96</t>
+          <t>34.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1279</t>
+          <t>2.4123</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1342,36 +902,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1169</t>
+          <t>1.4199</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1380,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9756</t>
+          <t>1.0392</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1418,32 +978,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8777</t>
+          <t>0.4636</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1456,36 +1016,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4908</t>
+          <t>0.3685</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1494,36 +1054,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3816</t>
+          <t>0.3527</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1532,36 +1092,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.2405</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1570,36 +1130,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1194,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1664,36 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4252</t>
+          <t>2.9210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1712,26 +1272,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4011</t>
+          <t>1.4825</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1740,36 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2389</t>
+          <t>1.4127</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1778,36 +1338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9414</t>
+          <t>1.3406</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1831,21 +1391,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4999</t>
+          <t>0.5252</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1864,26 +1424,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>91.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4503</t>
+          <t>0.4765</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1892,36 +1452,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1930,36 +1490,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +1554,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2024,36 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9210</t>
+          <t>1.4252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2072,26 +1632,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4825</t>
+          <t>1.4011</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2100,36 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>91.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4127</t>
+          <t>1.2389</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2138,36 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3406</t>
+          <t>0.9414</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2191,21 +1751,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5252</t>
+          <t>0.4999</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2224,26 +1784,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4765</t>
+          <t>0.4503</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2252,36 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2290,36 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +1914,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2394,26 +1954,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.81</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4123</t>
+          <t>1.1279</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2422,36 +1982,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.38</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4199</t>
+          <t>1.1169</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2460,36 +2020,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0392</t>
+          <t>0.9756</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2498,32 +2058,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4636</t>
+          <t>0.8777</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2536,36 +2096,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3685</t>
+          <t>0.4908</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2574,36 +2134,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3527</t>
+          <t>0.3816</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2612,36 +2172,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2405</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2650,36 +2210,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2714,7 +2274,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2744,36 +2304,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.61</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0420</t>
+          <t>1.4944</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2782,36 +2342,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9700</t>
+          <t>1.0491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2820,36 +2380,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1345</t>
+          <t>1.0401</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2858,36 +2418,264 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>011326</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>国泰医药健康股票C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2901,144 +2689,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.22</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.39</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.220000000000001</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.98</v>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.99</v>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.65</v>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.550000000000001</v>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>